--- a/QCS_Pipeline/dataset/propranolol_batch_dataset_wave.xlsx
+++ b/QCS_Pipeline/dataset/propranolol_batch_dataset_wave.xlsx
@@ -720,7 +720,7 @@
         <v>179.937913151936</v>
       </c>
       <c r="E2" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         <v>161.327211763291</v>
       </c>
       <c r="E3" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="4">
@@ -754,7 +754,7 @@
         <v>93.0951344160563</v>
       </c>
       <c r="E4" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="5">
@@ -771,7 +771,7 @@
         <v>81.7228605800432</v>
       </c>
       <c r="E5" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="6">
@@ -788,7 +788,7 @@
         <v>95.8608506615248</v>
       </c>
       <c r="E6" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>167.257084219743</v>
       </c>
       <c r="E7" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="8">
@@ -822,7 +822,7 @@
         <v>141.992218704192</v>
       </c>
       <c r="E8" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="9">
@@ -839,7 +839,7 @@
         <v>131.213194718868</v>
       </c>
       <c r="E9" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +856,7 @@
         <v>88.4188132584565</v>
       </c>
       <c r="E10" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="11">
@@ -873,7 +873,7 @@
         <v>83.6983315185709</v>
       </c>
       <c r="E11" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="12">
@@ -890,7 +890,7 @@
         <v>82.0009178888077</v>
       </c>
       <c r="E12" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="13">
@@ -907,7 +907,7 @@
         <v>127.095773253152</v>
       </c>
       <c r="E13" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="14">
@@ -924,7 +924,7 @@
         <v>188.021727023546</v>
       </c>
       <c r="E14" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="15">
@@ -941,7 +941,7 @@
         <v>144.310578233011</v>
       </c>
       <c r="E15" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="16">
@@ -958,7 +958,7 @@
         <v>82.7721186458726</v>
       </c>
       <c r="E16" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="17">
@@ -975,7 +975,7 @@
         <v>64.3686065295189</v>
       </c>
       <c r="E17" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="18">
@@ -992,7 +992,7 @@
         <v>60.4108471481131</v>
       </c>
       <c r="E18" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="19">
@@ -1009,7 +1009,7 @@
         <v>108.968505261023</v>
       </c>
       <c r="E19" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="20">
@@ -1026,7 +1026,7 @@
         <v>278.000501799476</v>
       </c>
       <c r="E20" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="21">
@@ -1043,7 +1043,7 @@
         <v>233.2482298196</v>
       </c>
       <c r="E21" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="22">
@@ -1060,7 +1060,7 @@
         <v>123.906373505443</v>
       </c>
       <c r="E22" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="23">
@@ -1077,7 +1077,7 @@
         <v>102.645980956759</v>
       </c>
       <c r="E23" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="24">
@@ -1094,7 +1094,7 @@
         <v>107.971131169503</v>
       </c>
       <c r="E24" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="25">
@@ -1111,7 +1111,7 @@
         <v>190.100396669161</v>
       </c>
       <c r="E25" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="26">
@@ -1128,7 +1128,7 @@
         <v>153.958814717132</v>
       </c>
       <c r="E26" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="27">
@@ -1145,7 +1145,7 @@
         <v>158.90246142486</v>
       </c>
       <c r="E27" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="28">
@@ -1162,7 +1162,7 @@
         <v>137.059484288307</v>
       </c>
       <c r="E28" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="29">
@@ -1179,7 +1179,7 @@
         <v>123.855798682996</v>
       </c>
       <c r="E29" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="30">
@@ -1196,7 +1196,7 @@
         <v>144.230307804608</v>
       </c>
       <c r="E30" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="31">
@@ -1213,7 +1213,7 @@
         <v>168.769206801819</v>
       </c>
       <c r="E31" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="32">
@@ -1230,7 +1230,7 @@
         <v>188.320440649714</v>
       </c>
       <c r="E32" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="33">
@@ -1247,7 +1247,7 @@
         <v>197.226696375629</v>
       </c>
       <c r="E33" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="34">
@@ -1264,7 +1264,7 @@
         <v>128.142966934043</v>
       </c>
       <c r="E34" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="35">
@@ -1281,7 +1281,7 @@
         <v>97.9789611678813</v>
       </c>
       <c r="E35" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="36">
@@ -1298,7 +1298,7 @@
         <v>77.4211995527094</v>
       </c>
       <c r="E36" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="37">
@@ -1315,7 +1315,7 @@
         <v>186.858684662811</v>
       </c>
       <c r="E37" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="38">
@@ -1332,7 +1332,7 @@
         <v>139.897841027187</v>
       </c>
       <c r="E38" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="39">
@@ -1349,7 +1349,7 @@
         <v>160.743450271288</v>
       </c>
       <c r="E39" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="40">
@@ -1366,7 +1366,7 @@
         <v>84.627570593288</v>
       </c>
       <c r="E40" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="41">
@@ -1383,7 +1383,7 @@
         <v>75.9003123566144</v>
       </c>
       <c r="E41" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="42">
@@ -1400,7 +1400,7 @@
         <v>86.7805609934848</v>
       </c>
       <c r="E42" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="43">
@@ -1417,7 +1417,7 @@
         <v>153.79598144059</v>
       </c>
       <c r="E43" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="44">
@@ -1434,7 +1434,7 @@
         <v>149.111037483729</v>
       </c>
       <c r="E44" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="45">
@@ -1451,7 +1451,7 @@
         <v>147.764946096421</v>
       </c>
       <c r="E45" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="46">
@@ -1468,7 +1468,7 @@
         <v>95.9409586895282</v>
       </c>
       <c r="E46" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="47">
@@ -1485,7 +1485,7 @@
         <v>96.173019192517</v>
       </c>
       <c r="E47" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="48">
@@ -1502,7 +1502,7 @@
         <v>93.5482937114192</v>
       </c>
       <c r="E48" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="49">
@@ -1519,7 +1519,7 @@
         <v>145.062694864612</v>
       </c>
       <c r="E49" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="50">
@@ -1536,7 +1536,7 @@
         <v>163.135740462292</v>
       </c>
       <c r="E50" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="51">
@@ -1553,7 +1553,7 @@
         <v>147.173070530314</v>
       </c>
       <c r="E51" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="52">
@@ -1570,7 +1570,7 @@
         <v>83.1263284254459</v>
       </c>
       <c r="E52" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="53">
@@ -1587,7 +1587,7 @@
         <v>71.7993682206274</v>
       </c>
       <c r="E53" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="54">
@@ -1604,7 +1604,7 @@
         <v>54.1446567952332</v>
       </c>
       <c r="E54" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="55">
@@ -1621,7 +1621,7 @@
         <v>116.499875939161</v>
       </c>
       <c r="E55" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="56">
@@ -1638,7 +1638,7 @@
         <v>260.719492536828</v>
       </c>
       <c r="E56" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="57">
@@ -1655,7 +1655,7 @@
         <v>271.664889960355</v>
       </c>
       <c r="E57" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="58">
@@ -1672,7 +1672,7 @@
         <v>138.765516064662</v>
       </c>
       <c r="E58" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="59">
@@ -1689,7 +1689,7 @@
         <v>116.656421375429</v>
       </c>
       <c r="E59" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="60">
@@ -1706,7 +1706,7 @@
         <v>108.768813976374</v>
       </c>
       <c r="E60" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="61">
@@ -1723,7 +1723,7 @@
         <v>248.863220398422</v>
       </c>
       <c r="E61" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="62">
@@ -1740,7 +1740,7 @@
         <v>216.856399803584</v>
       </c>
       <c r="E62" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="63">
@@ -1757,7 +1757,7 @@
         <v>221.944736647525</v>
       </c>
       <c r="E63" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="64">
@@ -1774,7 +1774,7 @@
         <v>86.2253151364661</v>
       </c>
       <c r="E64" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="65">
@@ -1791,7 +1791,7 @@
         <v>97.9580930451002</v>
       </c>
       <c r="E65" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="66">
@@ -1808,7 +1808,7 @@
         <v>112.211518635206</v>
       </c>
       <c r="E66" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="67">
@@ -1825,7 +1825,7 @@
         <v>202.108496017733</v>
       </c>
       <c r="E67" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="68">
@@ -1842,7 +1842,7 @@
         <v>202.564085593988</v>
       </c>
       <c r="E68" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="69">
@@ -1859,7 +1859,7 @@
         <v>227.865751928964</v>
       </c>
       <c r="E69" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="70">
@@ -1876,7 +1876,7 @@
         <v>158.759800371779</v>
       </c>
       <c r="E70" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="71">
@@ -1893,7 +1893,7 @@
         <v>113.724977934968</v>
       </c>
       <c r="E71" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="72">
@@ -1910,7 +1910,7 @@
         <v>107.783074728238</v>
       </c>
       <c r="E72" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="73">
@@ -1927,7 +1927,7 @@
         <v>194.648790680679</v>
       </c>
       <c r="E73" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="74">
@@ -1944,7 +1944,7 @@
         <v>80.8211463174947</v>
       </c>
       <c r="E74" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="75">
@@ -1961,7 +1961,7 @@
         <v>86.3494997101443</v>
       </c>
       <c r="E75" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="76">
@@ -1978,7 +1978,7 @@
         <v>95.0320013880072</v>
       </c>
       <c r="E76" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="77">
@@ -1995,7 +1995,7 @@
         <v>92.6937791739984</v>
       </c>
       <c r="E77" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="78">
@@ -2012,7 +2012,7 @@
         <v>101.130754783443</v>
       </c>
       <c r="E78" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="79">
@@ -2029,7 +2029,7 @@
         <v>93.0386181428674</v>
       </c>
       <c r="E79" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="80">
@@ -2046,7 +2046,7 @@
         <v>108.23156214463</v>
       </c>
       <c r="E80" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="81">
@@ -2063,7 +2063,7 @@
         <v>109.630506456575</v>
       </c>
       <c r="E81" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="82">
@@ -2080,7 +2080,7 @@
         <v>110.630305543905</v>
       </c>
       <c r="E82" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="83">
@@ -2097,7 +2097,7 @@
         <v>103.894057440231</v>
       </c>
       <c r="E83" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="84">
@@ -2114,7 +2114,7 @@
         <v>102.322184084208</v>
       </c>
       <c r="E84" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="85">
@@ -2131,7 +2131,7 @@
         <v>108.151683697871</v>
       </c>
       <c r="E85" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="86">
@@ -2148,7 +2148,7 @@
         <v>114.631858661199</v>
       </c>
       <c r="E86" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="87">
@@ -2165,7 +2165,7 @@
         <v>105.151060491046</v>
       </c>
       <c r="E87" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="88">
@@ -2182,7 +2182,7 @@
         <v>108.415279289709</v>
       </c>
       <c r="E88" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="89">
@@ -2199,7 +2199,7 @@
         <v>96.4251220516965</v>
       </c>
       <c r="E89" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="90">
@@ -2216,7 +2216,7 @@
         <v>92.4283306661687</v>
       </c>
       <c r="E90" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="91">
@@ -2233,7 +2233,7 @@
         <v>80.3286851669204</v>
       </c>
       <c r="E91" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="92">
@@ -2250,7 +2250,7 @@
         <v>155.202968060748</v>
       </c>
       <c r="E92" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="93">
@@ -2267,7 +2267,7 @@
         <v>165.301668674708</v>
       </c>
       <c r="E93" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="94">
@@ -2284,7 +2284,7 @@
         <v>119.118902868244</v>
       </c>
       <c r="E94" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="95">
@@ -2301,7 +2301,7 @@
         <v>127.691316278481</v>
       </c>
       <c r="E95" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="96">
@@ -2318,7 +2318,7 @@
         <v>119.539666870401</v>
       </c>
       <c r="E96" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="97">
@@ -2335,7 +2335,7 @@
         <v>209.684143227746</v>
       </c>
       <c r="E97" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="98">
@@ -2352,7 +2352,7 @@
         <v>214.80228857641</v>
       </c>
       <c r="E98" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="99">
@@ -2369,7 +2369,7 @@
         <v>205.913903685365</v>
       </c>
       <c r="E99" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="100">
@@ -2386,7 +2386,7 @@
         <v>132.773666918377</v>
       </c>
       <c r="E100" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="101">
@@ -2403,7 +2403,7 @@
         <v>112.601989366768</v>
       </c>
       <c r="E101" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="102">
@@ -2420,7 +2420,7 @@
         <v>111.988519644099</v>
       </c>
       <c r="E102" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="103">
@@ -2437,7 +2437,7 @@
         <v>204.595571238005</v>
       </c>
       <c r="E103" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="104">
@@ -2454,7 +2454,7 @@
         <v>148.026537442114</v>
       </c>
       <c r="E104" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="105">
@@ -2471,7 +2471,7 @@
         <v>141.605204737371</v>
       </c>
       <c r="E105" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="106">
@@ -2488,7 +2488,7 @@
         <v>94.394432701762</v>
       </c>
       <c r="E106" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="107">
@@ -2505,7 +2505,7 @@
         <v>85.1899904909328</v>
       </c>
       <c r="E107" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="108">
@@ -2522,7 +2522,7 @@
         <v>92.9508890628179</v>
       </c>
       <c r="E108" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="109">
@@ -2539,7 +2539,7 @@
         <v>145.708126476732</v>
       </c>
       <c r="E109" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
   </sheetData>
@@ -3873,7 +3873,7 @@
         <v>278.000501799476</v>
       </c>
       <c r="E2" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="3">
@@ -3890,7 +3890,7 @@
         <v>233.2482298196</v>
       </c>
       <c r="E3" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="4">
@@ -3907,7 +3907,7 @@
         <v>123.906373505443</v>
       </c>
       <c r="E4" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="5">
@@ -3924,7 +3924,7 @@
         <v>102.645980956759</v>
       </c>
       <c r="E5" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="6">
@@ -3941,7 +3941,7 @@
         <v>107.971131169503</v>
       </c>
       <c r="E6" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="7">
@@ -3958,7 +3958,7 @@
         <v>190.100396669161</v>
       </c>
       <c r="E7" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="8">
@@ -3975,7 +3975,7 @@
         <v>153.958814717132</v>
       </c>
       <c r="E8" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="9">
@@ -3992,7 +3992,7 @@
         <v>158.90246142486</v>
       </c>
       <c r="E9" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="10">
@@ -4009,7 +4009,7 @@
         <v>137.059484288307</v>
       </c>
       <c r="E10" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="11">
@@ -4026,7 +4026,7 @@
         <v>123.855798682996</v>
       </c>
       <c r="E11" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="12">
@@ -4043,7 +4043,7 @@
         <v>144.230307804608</v>
       </c>
       <c r="E12" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="13">
@@ -4060,7 +4060,7 @@
         <v>168.769206801819</v>
       </c>
       <c r="E13" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="14">
@@ -4077,7 +4077,7 @@
         <v>188.320440649714</v>
       </c>
       <c r="E14" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="15">
@@ -4094,7 +4094,7 @@
         <v>197.226696375629</v>
       </c>
       <c r="E15" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="16">
@@ -4111,7 +4111,7 @@
         <v>128.142966934043</v>
       </c>
       <c r="E16" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="17">
@@ -4128,7 +4128,7 @@
         <v>97.9789611678813</v>
       </c>
       <c r="E17" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="18">
@@ -4145,7 +4145,7 @@
         <v>77.4211995527094</v>
       </c>
       <c r="E18" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="19">
@@ -4162,7 +4162,7 @@
         <v>186.858684662811</v>
       </c>
       <c r="E19" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="20">
@@ -4179,7 +4179,7 @@
         <v>139.897841027187</v>
       </c>
       <c r="E20" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="21">
@@ -4196,7 +4196,7 @@
         <v>160.743450271288</v>
       </c>
       <c r="E21" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="22">
@@ -4213,7 +4213,7 @@
         <v>84.627570593288</v>
       </c>
       <c r="E22" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="23">
@@ -4230,7 +4230,7 @@
         <v>75.9003123566144</v>
       </c>
       <c r="E23" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="24">
@@ -4247,7 +4247,7 @@
         <v>86.7805609934848</v>
       </c>
       <c r="E24" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="25">
@@ -4264,7 +4264,7 @@
         <v>153.79598144059</v>
       </c>
       <c r="E25" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="26">
@@ -4281,7 +4281,7 @@
         <v>149.111037483729</v>
       </c>
       <c r="E26" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="27">
@@ -4298,7 +4298,7 @@
         <v>147.764946096421</v>
       </c>
       <c r="E27" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="28">
@@ -4315,7 +4315,7 @@
         <v>95.9409586895282</v>
       </c>
       <c r="E28" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="29">
@@ -4332,7 +4332,7 @@
         <v>96.173019192517</v>
       </c>
       <c r="E29" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="30">
@@ -4349,7 +4349,7 @@
         <v>93.5482937114192</v>
       </c>
       <c r="E30" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="31">
@@ -4366,7 +4366,7 @@
         <v>145.062694864612</v>
       </c>
       <c r="E31" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="32">
@@ -4383,7 +4383,7 @@
         <v>163.135740462292</v>
       </c>
       <c r="E32" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="33">
@@ -4400,7 +4400,7 @@
         <v>147.173070530314</v>
       </c>
       <c r="E33" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="34">
@@ -4417,7 +4417,7 @@
         <v>83.1263284254459</v>
       </c>
       <c r="E34" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="35">
@@ -4434,7 +4434,7 @@
         <v>71.7993682206274</v>
       </c>
       <c r="E35" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="36">
@@ -4451,7 +4451,7 @@
         <v>54.1446567952332</v>
       </c>
       <c r="E36" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
     <row r="37">
@@ -4468,7 +4468,7 @@
         <v>116.499875939161</v>
       </c>
       <c r="E37" t="n">
-        <v>35.5132729855698</v>
+        <v>35.5132729855697</v>
       </c>
     </row>
   </sheetData>
@@ -4516,7 +4516,7 @@
         <v>179.937913151936</v>
       </c>
       <c r="E2" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="3">
@@ -4533,7 +4533,7 @@
         <v>161.327211763291</v>
       </c>
       <c r="E3" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="4">
@@ -4550,7 +4550,7 @@
         <v>93.0951344160563</v>
       </c>
       <c r="E4" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="5">
@@ -4567,7 +4567,7 @@
         <v>81.7228605800432</v>
       </c>
       <c r="E5" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="6">
@@ -4584,7 +4584,7 @@
         <v>95.8608506615248</v>
       </c>
       <c r="E6" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="7">
@@ -4601,7 +4601,7 @@
         <v>167.257084219743</v>
       </c>
       <c r="E7" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="8">
@@ -4618,7 +4618,7 @@
         <v>141.992218704192</v>
       </c>
       <c r="E8" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="9">
@@ -4635,7 +4635,7 @@
         <v>131.213194718868</v>
       </c>
       <c r="E9" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="10">
@@ -4652,7 +4652,7 @@
         <v>88.4188132584565</v>
       </c>
       <c r="E10" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="11">
@@ -4669,7 +4669,7 @@
         <v>83.6983315185709</v>
       </c>
       <c r="E11" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="12">
@@ -4686,7 +4686,7 @@
         <v>82.0009178888077</v>
       </c>
       <c r="E12" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="13">
@@ -4703,7 +4703,7 @@
         <v>127.095773253152</v>
       </c>
       <c r="E13" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="14">
@@ -4720,7 +4720,7 @@
         <v>188.021727023546</v>
       </c>
       <c r="E14" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="15">
@@ -4737,7 +4737,7 @@
         <v>144.310578233011</v>
       </c>
       <c r="E15" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="16">
@@ -4754,7 +4754,7 @@
         <v>82.7721186458726</v>
       </c>
       <c r="E16" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="17">
@@ -4771,7 +4771,7 @@
         <v>64.3686065295189</v>
       </c>
       <c r="E17" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="18">
@@ -4788,7 +4788,7 @@
         <v>60.4108471481131</v>
       </c>
       <c r="E18" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="19">
@@ -4805,7 +4805,7 @@
         <v>108.968505261023</v>
       </c>
       <c r="E19" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="20">
@@ -4822,7 +4822,7 @@
         <v>278.000501799476</v>
       </c>
       <c r="E20" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="21">
@@ -4839,7 +4839,7 @@
         <v>233.2482298196</v>
       </c>
       <c r="E21" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="22">
@@ -4856,7 +4856,7 @@
         <v>123.906373505443</v>
       </c>
       <c r="E22" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="23">
@@ -4873,7 +4873,7 @@
         <v>102.645980956759</v>
       </c>
       <c r="E23" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="24">
@@ -4890,7 +4890,7 @@
         <v>107.971131169503</v>
       </c>
       <c r="E24" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="25">
@@ -4907,7 +4907,7 @@
         <v>190.100396669161</v>
       </c>
       <c r="E25" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="26">
@@ -4924,7 +4924,7 @@
         <v>153.958814717132</v>
       </c>
       <c r="E26" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="27">
@@ -4941,7 +4941,7 @@
         <v>158.90246142486</v>
       </c>
       <c r="E27" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="28">
@@ -4958,7 +4958,7 @@
         <v>137.059484288307</v>
       </c>
       <c r="E28" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="29">
@@ -4975,7 +4975,7 @@
         <v>123.855798682996</v>
       </c>
       <c r="E29" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="30">
@@ -4992,7 +4992,7 @@
         <v>144.230307804608</v>
       </c>
       <c r="E30" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="31">
@@ -5009,7 +5009,7 @@
         <v>168.769206801819</v>
       </c>
       <c r="E31" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="32">
@@ -5026,7 +5026,7 @@
         <v>188.320440649714</v>
       </c>
       <c r="E32" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="33">
@@ -5043,7 +5043,7 @@
         <v>197.226696375629</v>
       </c>
       <c r="E33" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="34">
@@ -5060,7 +5060,7 @@
         <v>128.142966934043</v>
       </c>
       <c r="E34" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="35">
@@ -5077,7 +5077,7 @@
         <v>97.9789611678813</v>
       </c>
       <c r="E35" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="36">
@@ -5094,7 +5094,7 @@
         <v>77.4211995527094</v>
       </c>
       <c r="E36" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="37">
@@ -5111,7 +5111,7 @@
         <v>186.858684662811</v>
       </c>
       <c r="E37" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="38">
@@ -5128,7 +5128,7 @@
         <v>139.897841027187</v>
       </c>
       <c r="E38" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="39">
@@ -5145,7 +5145,7 @@
         <v>160.743450271288</v>
       </c>
       <c r="E39" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="40">
@@ -5162,7 +5162,7 @@
         <v>84.627570593288</v>
       </c>
       <c r="E40" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="41">
@@ -5179,7 +5179,7 @@
         <v>75.9003123566144</v>
       </c>
       <c r="E41" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="42">
@@ -5196,7 +5196,7 @@
         <v>86.7805609934848</v>
       </c>
       <c r="E42" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="43">
@@ -5213,7 +5213,7 @@
         <v>153.79598144059</v>
       </c>
       <c r="E43" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="44">
@@ -5230,7 +5230,7 @@
         <v>149.111037483729</v>
       </c>
       <c r="E44" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="45">
@@ -5247,7 +5247,7 @@
         <v>147.764946096421</v>
       </c>
       <c r="E45" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="46">
@@ -5264,7 +5264,7 @@
         <v>95.9409586895282</v>
       </c>
       <c r="E46" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="47">
@@ -5281,7 +5281,7 @@
         <v>96.173019192517</v>
       </c>
       <c r="E47" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="48">
@@ -5298,7 +5298,7 @@
         <v>93.5482937114192</v>
       </c>
       <c r="E48" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="49">
@@ -5315,7 +5315,7 @@
         <v>145.062694864612</v>
       </c>
       <c r="E49" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="50">
@@ -5332,7 +5332,7 @@
         <v>163.135740462292</v>
       </c>
       <c r="E50" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="51">
@@ -5349,7 +5349,7 @@
         <v>147.173070530314</v>
       </c>
       <c r="E51" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="52">
@@ -5366,7 +5366,7 @@
         <v>83.1263284254459</v>
       </c>
       <c r="E52" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="53">
@@ -5383,7 +5383,7 @@
         <v>71.7993682206274</v>
       </c>
       <c r="E53" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="54">
@@ -5400,7 +5400,7 @@
         <v>54.1446567952332</v>
       </c>
       <c r="E54" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="55">
@@ -5417,7 +5417,7 @@
         <v>116.499875939161</v>
       </c>
       <c r="E55" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="56">
@@ -5434,7 +5434,7 @@
         <v>260.719492536828</v>
       </c>
       <c r="E56" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="57">
@@ -5451,7 +5451,7 @@
         <v>271.664889960355</v>
       </c>
       <c r="E57" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="58">
@@ -5468,7 +5468,7 @@
         <v>138.765516064662</v>
       </c>
       <c r="E58" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="59">
@@ -5485,7 +5485,7 @@
         <v>116.656421375429</v>
       </c>
       <c r="E59" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="60">
@@ -5502,7 +5502,7 @@
         <v>108.768813976374</v>
       </c>
       <c r="E60" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="61">
@@ -5519,7 +5519,7 @@
         <v>248.863220398422</v>
       </c>
       <c r="E61" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="62">
@@ -5536,7 +5536,7 @@
         <v>216.856399803584</v>
       </c>
       <c r="E62" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="63">
@@ -5553,7 +5553,7 @@
         <v>221.944736647525</v>
       </c>
       <c r="E63" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="64">
@@ -5570,7 +5570,7 @@
         <v>86.2253151364661</v>
       </c>
       <c r="E64" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="65">
@@ -5587,7 +5587,7 @@
         <v>97.9580930451002</v>
       </c>
       <c r="E65" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="66">
@@ -5604,7 +5604,7 @@
         <v>112.211518635206</v>
       </c>
       <c r="E66" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="67">
@@ -5621,7 +5621,7 @@
         <v>202.108496017733</v>
       </c>
       <c r="E67" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="68">
@@ -5638,7 +5638,7 @@
         <v>202.564085593988</v>
       </c>
       <c r="E68" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="69">
@@ -5655,7 +5655,7 @@
         <v>227.865751928964</v>
       </c>
       <c r="E69" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="70">
@@ -5672,7 +5672,7 @@
         <v>158.759800371779</v>
       </c>
       <c r="E70" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="71">
@@ -5689,7 +5689,7 @@
         <v>113.724977934968</v>
       </c>
       <c r="E71" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="72">
@@ -5706,7 +5706,7 @@
         <v>107.783074728238</v>
       </c>
       <c r="E72" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="73">
@@ -5723,7 +5723,7 @@
         <v>194.648790680679</v>
       </c>
       <c r="E73" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="74">
@@ -5740,7 +5740,7 @@
         <v>80.8211463174947</v>
       </c>
       <c r="E74" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="75">
@@ -5757,7 +5757,7 @@
         <v>86.3494997101443</v>
       </c>
       <c r="E75" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="76">
@@ -5774,7 +5774,7 @@
         <v>95.0320013880072</v>
       </c>
       <c r="E76" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="77">
@@ -5791,7 +5791,7 @@
         <v>92.6937791739984</v>
       </c>
       <c r="E77" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="78">
@@ -5808,7 +5808,7 @@
         <v>101.130754783443</v>
       </c>
       <c r="E78" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="79">
@@ -5825,7 +5825,7 @@
         <v>93.0386181428674</v>
       </c>
       <c r="E79" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="80">
@@ -5842,7 +5842,7 @@
         <v>108.23156214463</v>
       </c>
       <c r="E80" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="81">
@@ -5859,7 +5859,7 @@
         <v>109.630506456575</v>
       </c>
       <c r="E81" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="82">
@@ -5876,7 +5876,7 @@
         <v>110.630305543905</v>
       </c>
       <c r="E82" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="83">
@@ -5893,7 +5893,7 @@
         <v>103.894057440231</v>
       </c>
       <c r="E83" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="84">
@@ -5910,7 +5910,7 @@
         <v>102.322184084208</v>
       </c>
       <c r="E84" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="85">
@@ -5927,7 +5927,7 @@
         <v>108.151683697871</v>
       </c>
       <c r="E85" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="86">
@@ -5944,7 +5944,7 @@
         <v>114.631858661199</v>
       </c>
       <c r="E86" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="87">
@@ -5961,7 +5961,7 @@
         <v>105.151060491046</v>
       </c>
       <c r="E87" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="88">
@@ -5978,7 +5978,7 @@
         <v>108.415279289709</v>
       </c>
       <c r="E88" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="89">
@@ -5995,7 +5995,7 @@
         <v>96.4251220516965</v>
       </c>
       <c r="E89" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="90">
@@ -6012,7 +6012,7 @@
         <v>92.4283306661687</v>
       </c>
       <c r="E90" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="91">
@@ -6029,7 +6029,7 @@
         <v>80.3286851669204</v>
       </c>
       <c r="E91" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="92">
@@ -6046,7 +6046,7 @@
         <v>155.202968060748</v>
       </c>
       <c r="E92" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="93">
@@ -6063,7 +6063,7 @@
         <v>165.301668674708</v>
       </c>
       <c r="E93" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="94">
@@ -6080,7 +6080,7 @@
         <v>119.118902868244</v>
       </c>
       <c r="E94" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="95">
@@ -6097,7 +6097,7 @@
         <v>127.691316278481</v>
       </c>
       <c r="E95" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="96">
@@ -6114,7 +6114,7 @@
         <v>119.539666870401</v>
       </c>
       <c r="E96" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="97">
@@ -6131,7 +6131,7 @@
         <v>209.684143227746</v>
       </c>
       <c r="E97" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="98">
@@ -6148,7 +6148,7 @@
         <v>214.80228857641</v>
       </c>
       <c r="E98" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="99">
@@ -6165,7 +6165,7 @@
         <v>205.913903685365</v>
       </c>
       <c r="E99" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="100">
@@ -6182,7 +6182,7 @@
         <v>132.773666918377</v>
       </c>
       <c r="E100" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="101">
@@ -6199,7 +6199,7 @@
         <v>112.601989366768</v>
       </c>
       <c r="E101" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="102">
@@ -6216,7 +6216,7 @@
         <v>111.988519644099</v>
       </c>
       <c r="E102" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="103">
@@ -6233,7 +6233,7 @@
         <v>204.595571238005</v>
       </c>
       <c r="E103" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="104">
@@ -6250,7 +6250,7 @@
         <v>148.026537442114</v>
       </c>
       <c r="E104" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="105">
@@ -6267,7 +6267,7 @@
         <v>141.605204737371</v>
       </c>
       <c r="E105" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="106">
@@ -6284,7 +6284,7 @@
         <v>94.394432701762</v>
       </c>
       <c r="E106" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="107">
@@ -6301,7 +6301,7 @@
         <v>85.1899904909328</v>
       </c>
       <c r="E107" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="108">
@@ -6318,7 +6318,7 @@
         <v>92.9508890628179</v>
       </c>
       <c r="E108" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
     <row r="109">
@@ -6335,7 +6335,7 @@
         <v>145.708126476732</v>
       </c>
       <c r="E109" t="n">
-        <v>36.9690096463073</v>
+        <v>36.9690096463074</v>
       </c>
     </row>
   </sheetData>
